--- a/test/Test 2 e 3.xlsx
+++ b/test/Test 2 e 3.xlsx
@@ -342,7 +342,7 @@
                   <c:v>0.12433333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1803333333333332</c:v>
+                  <c:v>1.3803333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12.132333333333333</c:v>
@@ -391,7 +391,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0666666666666667E-2</c:v>
+                  <c:v>1.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.2666666666666663E-2</c:v>
@@ -416,7 +416,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2668,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2914,17 +2913,17 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.1859999999999999</v>
+        <v>1.3859999999999999</v>
       </c>
       <c r="C14">
-        <v>1.151</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>1.204</v>
+        <v>1.504</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE(B14:D14)</f>
-        <v>1.1803333333333332</v>
+        <v>1.3803333333333334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,14 +3023,14 @@
         <v>2E-3</v>
       </c>
       <c r="C20">
-        <v>3.4000000000000002E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D20" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(B20:D20)</f>
-        <v>2.0666666666666667E-2</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="G20" s="1"/>
       <c r="J20" s="1"/>
